--- a/biology/Zoologie/Catriona_(genre)/Catriona_(genre).xlsx
+++ b/biology/Zoologie/Catriona_(genre)/Catriona_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Catriona est un genre de nudibranches de la famille des Trinchesiidae (anciennement des Tergipedidae).
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1er mai 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1er mai 2024) :
 Catriona alpha (Baba &amp; Hamatani, 1963)
 Catriona aurantia (Alder &amp; Hancock, 1842)
 Catriona casha Gosliner &amp; R. J. Griffiths, 1981
@@ -564,11 +578,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Catriona Winckworth (d), 1941[1].
-Publication originale
-(en) R. Winckworth, « The name Cratena », Proceedings of the Malacological Society of London, 1941, vol. 24, n. 4, p. 146-149 (introduction).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Catriona Winckworth (d), 1941.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catriona_(genre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catriona_(genre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) R. Winckworth, « The name Cratena », Proceedings of the Malacological Society of London, 1941, vol. 24, n. 4, p. 146-149 (introduction).</t>
         </is>
       </c>
     </row>
